--- a/python-helpers/artifacts/results_20250708.xlsx
+++ b/python-helpers/artifacts/results_20250708.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\repos\bin-packing\python-helpers\artifacts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32ACBCE8-E71E-4EAD-8D46-EBAFA9E83628}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E880DB90-EB34-40A6-B870-0DF709F79E76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
